--- a/excel/mlpacc.xlsx
+++ b/excel/mlpacc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wfs1\users$\sidharth\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\public\food-image-classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="mlpacc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3221,11 +3218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="832264832"/>
-        <c:axId val="832265392"/>
+        <c:axId val="440135168"/>
+        <c:axId val="440135728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="832264832"/>
+        <c:axId val="440135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3246,6 +3243,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3339,13 +3350,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832265392"/>
+        <c:crossAx val="440135728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="832265392"/>
+        <c:axId val="440135728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -3367,6 +3378,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3465,10 +3490,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832264832"/>
+        <c:crossAx val="440135168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4140,986 +4166,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="acc2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>20k samples</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>15k samples</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>10k samples</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>5k samples</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>15.624997019799999</v>
-          </cell>
-          <cell r="G2">
-            <v>23.824997246300001</v>
-          </cell>
-          <cell r="H2">
-            <v>23.649998009199997</v>
-          </cell>
-          <cell r="I2">
-            <v>27.750000357600001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-          <cell r="F3">
-            <v>14.024998247600001</v>
-          </cell>
-          <cell r="G3">
-            <v>17.399999499300002</v>
-          </cell>
-          <cell r="H3">
-            <v>13.0750000477</v>
-          </cell>
-          <cell r="I3">
-            <v>18.875001370899998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>3</v>
-          </cell>
-          <cell r="F4">
-            <v>12.999999523200001</v>
-          </cell>
-          <cell r="G4">
-            <v>12.624999880800001</v>
-          </cell>
-          <cell r="H4">
-            <v>10.974999517200001</v>
-          </cell>
-          <cell r="I4">
-            <v>15.549997985399999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>4</v>
-          </cell>
-          <cell r="F5">
-            <v>12.1500000358</v>
-          </cell>
-          <cell r="G5">
-            <v>10.5999998748</v>
-          </cell>
-          <cell r="H5">
-            <v>11.3000005484</v>
-          </cell>
-          <cell r="I5">
-            <v>13.149999082100001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>11.450002342499999</v>
-          </cell>
-          <cell r="G6">
-            <v>9.5249995589300003</v>
-          </cell>
-          <cell r="H6">
-            <v>10.274998843700001</v>
-          </cell>
-          <cell r="I6">
-            <v>14.3250018358</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>10.724999755599999</v>
-          </cell>
-          <cell r="G7">
-            <v>8.9250005781699997</v>
-          </cell>
-          <cell r="H7">
-            <v>10.399999469500001</v>
-          </cell>
-          <cell r="I7">
-            <v>12.0749995112</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>10.049999505300001</v>
-          </cell>
-          <cell r="G8">
-            <v>7.87499919534</v>
-          </cell>
-          <cell r="H8">
-            <v>9.799999743699999</v>
-          </cell>
-          <cell r="I8">
-            <v>12.150000780799999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>8</v>
-          </cell>
-          <cell r="F9">
-            <v>8.9500010013600004</v>
-          </cell>
-          <cell r="G9">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="H9">
-            <v>9.7000002860999999</v>
-          </cell>
-          <cell r="I9">
-            <v>11.525000631800001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>9</v>
-          </cell>
-          <cell r="F10">
-            <v>8.2000009715599997</v>
-          </cell>
-          <cell r="G10">
-            <v>7.4500009417499999</v>
-          </cell>
-          <cell r="H10">
-            <v>9.8249994218300003</v>
-          </cell>
-          <cell r="I10">
-            <v>11.450000852300001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="F11">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="G11">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H11">
-            <v>9.6749991178499997</v>
-          </cell>
-          <cell r="I11">
-            <v>11.474998295300001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>11</v>
-          </cell>
-          <cell r="F12">
-            <v>7.1249991655299993</v>
-          </cell>
-          <cell r="G12">
-            <v>7.2750009596299998</v>
-          </cell>
-          <cell r="H12">
-            <v>8.950000256300001</v>
-          </cell>
-          <cell r="I12">
-            <v>10.525000095399999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>12</v>
-          </cell>
-          <cell r="F13">
-            <v>6.8999990820899999</v>
-          </cell>
-          <cell r="G13">
-            <v>7.6499998569500001</v>
-          </cell>
-          <cell r="H13">
-            <v>8.6249992251399998</v>
-          </cell>
-          <cell r="I13">
-            <v>10.500000417200001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>13</v>
-          </cell>
-          <cell r="F14">
-            <v>6.3999995589300003</v>
-          </cell>
-          <cell r="G14">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="H14">
-            <v>8.3750002086199995</v>
-          </cell>
-          <cell r="I14">
-            <v>10.2999992669</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>14</v>
-          </cell>
-          <cell r="F15">
-            <v>6.2499992549400005</v>
-          </cell>
-          <cell r="G15">
-            <v>7.3000013828299997</v>
-          </cell>
-          <cell r="H15">
-            <v>8.1500016152899999</v>
-          </cell>
-          <cell r="I15">
-            <v>10.149999707899999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>15</v>
-          </cell>
-          <cell r="F16">
-            <v>6.1499994248199998</v>
-          </cell>
-          <cell r="G16">
-            <v>7.2999998927100007</v>
-          </cell>
-          <cell r="H16">
-            <v>7.75000080466</v>
-          </cell>
-          <cell r="I16">
-            <v>10.125000029800001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>16</v>
-          </cell>
-          <cell r="F17">
-            <v>6.0749992728200004</v>
-          </cell>
-          <cell r="G17">
-            <v>7.2999998927100007</v>
-          </cell>
-          <cell r="H17">
-            <v>10.000000149</v>
-          </cell>
-          <cell r="I17">
-            <v>9.9750004708799995</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>17</v>
-          </cell>
-          <cell r="F18">
-            <v>5.8749988675099996</v>
-          </cell>
-          <cell r="G18">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="H18">
-            <v>8.6000002920600007</v>
-          </cell>
-          <cell r="I18">
-            <v>9.8249994218300003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>18</v>
-          </cell>
-          <cell r="F19">
-            <v>5.8499988168500003</v>
-          </cell>
-          <cell r="G19">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="H19">
-            <v>8.2499995827700001</v>
-          </cell>
-          <cell r="I19">
-            <v>9.7249984741199995</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>19</v>
-          </cell>
-          <cell r="F20">
-            <v>5.8999985456499999</v>
-          </cell>
-          <cell r="G20">
-            <v>7.4749991297700005</v>
-          </cell>
-          <cell r="H20">
-            <v>8.1249997019800002</v>
-          </cell>
-          <cell r="I20">
-            <v>9.6749983727900002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>20</v>
-          </cell>
-          <cell r="F21">
-            <v>5.8499984443200006</v>
-          </cell>
-          <cell r="G21">
-            <v>7.4250005185600001</v>
-          </cell>
-          <cell r="H21">
-            <v>7.9999998211900003</v>
-          </cell>
-          <cell r="I21">
-            <v>9.6249990165200003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>21</v>
-          </cell>
-          <cell r="F22">
-            <v>5.7499986141899999</v>
-          </cell>
-          <cell r="G22">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H22">
-            <v>7.87499919534</v>
-          </cell>
-          <cell r="I22">
-            <v>9.499998390670001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>22</v>
-          </cell>
-          <cell r="F23">
-            <v>5.6749988347300002</v>
-          </cell>
-          <cell r="G23">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H23">
-            <v>7.8249998390700002</v>
-          </cell>
-          <cell r="I23">
-            <v>9.4749987125399997</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>23</v>
-          </cell>
-          <cell r="F24">
-            <v>5.6499991565899998</v>
-          </cell>
-          <cell r="G24">
-            <v>7.4000000953700003</v>
-          </cell>
-          <cell r="H24">
-            <v>7.8500010073199995</v>
-          </cell>
-          <cell r="I24">
-            <v>9.4750002026600004</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>24</v>
-          </cell>
-          <cell r="F25">
-            <v>5.6499995291199996</v>
-          </cell>
-          <cell r="G25">
-            <v>7.3250003159000006</v>
-          </cell>
-          <cell r="H25">
-            <v>7.77499973774</v>
-          </cell>
-          <cell r="I25">
-            <v>9.474999457600001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>25</v>
-          </cell>
-          <cell r="F26">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="G26">
-            <v>7.2249993681899998</v>
-          </cell>
-          <cell r="H26">
-            <v>7.8000001609299998</v>
-          </cell>
-          <cell r="I26">
-            <v>9.4499990343999993</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>26</v>
-          </cell>
-          <cell r="F27">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="G27">
-            <v>7.1749992668599996</v>
-          </cell>
-          <cell r="H27">
-            <v>7.7999994158700003</v>
-          </cell>
-          <cell r="I27">
-            <v>9.375</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>27</v>
-          </cell>
-          <cell r="F28">
-            <v>5.6000001728499997</v>
-          </cell>
-          <cell r="G28">
-            <v>7.0999994873999999</v>
-          </cell>
-          <cell r="H28">
-            <v>7.7499993145500001</v>
-          </cell>
-          <cell r="I28">
-            <v>9.275000542399999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>28</v>
-          </cell>
-          <cell r="F29">
-            <v>5.4999999702000002</v>
-          </cell>
-          <cell r="G29">
-            <v>7.0749998092699995</v>
-          </cell>
-          <cell r="H29">
-            <v>7.7499993145500001</v>
-          </cell>
-          <cell r="I29">
-            <v>9.3000002205399994</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>29</v>
-          </cell>
-          <cell r="F30">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G30">
-            <v>7.0499993860699997</v>
-          </cell>
-          <cell r="H30">
-            <v>7.7249996364099998</v>
-          </cell>
-          <cell r="I30">
-            <v>9.275000542399999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>30</v>
-          </cell>
-          <cell r="F31">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G31">
-            <v>7.0499993860699997</v>
-          </cell>
-          <cell r="H31">
-            <v>7.6749995350800004</v>
-          </cell>
-          <cell r="I31">
-            <v>9.400000423189999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>31</v>
-          </cell>
-          <cell r="F32">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G32">
-            <v>7.0249989628799998</v>
-          </cell>
-          <cell r="H32">
-            <v>7.5749993324300009</v>
-          </cell>
-          <cell r="I32">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>32</v>
-          </cell>
-          <cell r="F33">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G33">
-            <v>6.97499960661</v>
-          </cell>
-          <cell r="H33">
-            <v>7.5749993324300009</v>
-          </cell>
-          <cell r="I33">
-            <v>9.4749987125399997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>33</v>
-          </cell>
-          <cell r="F34">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G34">
-            <v>6.9499999284700005</v>
-          </cell>
-          <cell r="H34">
-            <v>7.5249992311000007</v>
-          </cell>
-          <cell r="I34">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>34</v>
-          </cell>
-          <cell r="F35">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G35">
-            <v>6.8749994039499995</v>
-          </cell>
-          <cell r="H35">
-            <v>7.4749991297700005</v>
-          </cell>
-          <cell r="I35">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>35</v>
-          </cell>
-          <cell r="F36">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G36">
-            <v>6.8999998271499994</v>
-          </cell>
-          <cell r="H36">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I36">
-            <v>9.274999052290001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>36</v>
-          </cell>
-          <cell r="F37">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G37">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H37">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I37">
-            <v>9.2499993741500006</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>37</v>
-          </cell>
-          <cell r="F38">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="G38">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H38">
-            <v>7.4249997735000006</v>
-          </cell>
-          <cell r="I38">
-            <v>9.274999052290001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>38</v>
-          </cell>
-          <cell r="F39">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G39">
-            <v>6.7499995231599996</v>
-          </cell>
-          <cell r="H39">
-            <v>7.4749998748299999</v>
-          </cell>
-          <cell r="I39">
-            <v>9.2499986290900011</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>39</v>
-          </cell>
-          <cell r="F40">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G40">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H40">
-            <v>7.449999451640001</v>
-          </cell>
-          <cell r="I40">
-            <v>9.2249982058999986</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>40</v>
-          </cell>
-          <cell r="F41">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G41">
-            <v>6.7499995231599996</v>
-          </cell>
-          <cell r="H41">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I41">
-            <v>9.1999977827099997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>41</v>
-          </cell>
-          <cell r="F42">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G42">
-            <v>6.7249998450300001</v>
-          </cell>
-          <cell r="H42">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I42">
-            <v>9.1499984264399998</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>42</v>
-          </cell>
-          <cell r="F43">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G43">
-            <v>6.6999994218299994</v>
-          </cell>
-          <cell r="H43">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="I43">
-            <v>9.1499991715000011</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>43</v>
-          </cell>
-          <cell r="F44">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G44">
-            <v>6.6499993205100001</v>
-          </cell>
-          <cell r="H44">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="I44">
-            <v>9.1499991715000011</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>44</v>
-          </cell>
-          <cell r="F45">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G45">
-            <v>6.6249996423699997</v>
-          </cell>
-          <cell r="H45">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I45">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>45</v>
-          </cell>
-          <cell r="F46">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G46">
-            <v>6.6499993205100001</v>
-          </cell>
-          <cell r="H46">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I46">
-            <v>9.0999998152300012</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>46</v>
-          </cell>
-          <cell r="F47">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G47">
-            <v>6.3749998807899999</v>
-          </cell>
-          <cell r="H47">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I47">
-            <v>9.1250002384200002</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>47</v>
-          </cell>
-          <cell r="F48">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G48">
-            <v>6.4000003039799997</v>
-          </cell>
-          <cell r="H48">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I48">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>48</v>
-          </cell>
-          <cell r="F49">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G49">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H49">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I49">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>49</v>
-          </cell>
-          <cell r="F50">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G50">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H50">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I50">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>50</v>
-          </cell>
-          <cell r="F51">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G51">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H51">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I51">
-            <v>9.0500004589599996</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>51</v>
-          </cell>
-          <cell r="F52">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G52">
-            <v>6.45000040531</v>
-          </cell>
-          <cell r="H52">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I52">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>52</v>
-          </cell>
-          <cell r="F53">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G53">
-            <v>6.4000003039799997</v>
-          </cell>
-          <cell r="H53">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I53">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>53</v>
-          </cell>
-          <cell r="F54">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G54">
-            <v>6.3749998807899999</v>
-          </cell>
-          <cell r="H54">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I54">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>54</v>
-          </cell>
-          <cell r="F55">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G55">
-            <v>6.3500002026600004</v>
-          </cell>
-          <cell r="H55">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I55">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>55</v>
-          </cell>
-          <cell r="F56">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G56">
-            <v>6.3000001013300002</v>
-          </cell>
-          <cell r="H56">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I56">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>56</v>
-          </cell>
-          <cell r="F57">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G57">
-            <v>6.25</v>
-          </cell>
-          <cell r="H57">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I57">
-            <v>9.1499991715000011</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5386,7 +4432,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
